--- a/xlsx/country_comparison/conjoint_ab_all_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_ab_all_positive.xlsx
@@ -410,7 +410,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542040004729187</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C2" t="n">
         <v>0.757320866764204</v>
@@ -433,7 +433,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.547746183708496</v>
+        <v>0.547746186051635</v>
       </c>
       <c r="C3" t="n">
         <v>0.735351301009053</v>
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.546998522785705</v>
+        <v>0.546998519360197</v>
       </c>
       <c r="C4" t="n">
         <v>0.770223388683434</v>
@@ -479,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.616278510435644</v>
+        <v>0.616278518818649</v>
       </c>
       <c r="C5" t="n">
         <v>0.840441328944408</v>
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.472512715290671</v>
+        <v>0.472512715667483</v>
       </c>
       <c r="C6" t="n">
         <v>0.515377450158311</v>
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.549945294929239</v>
+        <v>0.549945299403874</v>
       </c>
       <c r="C7" t="n">
         <v>0.772716277532722</v>
